--- a/data/trans_dic/KIDM_C_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_3_R-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,17%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,91</t>
+          <t>2,12; 11,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,44; 16,08</t>
+          <t>4,31; 17,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,52; 12,5</t>
+          <t>7,18; 20,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,72</t>
+          <t>0,0; 5,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,66</t>
+          <t>2,52; 14,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,7; 17,02</t>
+          <t>15,55; 32,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,5; 13,98</t>
+          <t>2,25; 11,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,45</t>
+          <t>0,0; 12,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,05</t>
+          <t>3,14; 10,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,48; 15,13</t>
+          <t>11,23; 21,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,97</t>
+          <t>5,92; 13,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,87</t>
+          <t>0,55; 6,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,93%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 11,62</t>
+          <t>2,24; 5,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 17,36</t>
+          <t>9,44; 16,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 20,12</t>
+          <t>6,52; 12,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,59</t>
+          <t>0,85; 4,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 14,66</t>
+          <t>3,38; 7,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,55; 32,03</t>
+          <t>9,7; 17,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 11,34</t>
+          <t>7,5; 13,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,96</t>
+          <t>2,09; 7,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 10,87</t>
+          <t>3,2; 6,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,23; 21,76</t>
+          <t>10,48; 15,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 13,55</t>
+          <t>7,72; 11,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 6,06</t>
+          <t>1,8; 4,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/KIDM_C_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_3_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 11,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 17,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 20,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 14,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,55; 32,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 11,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 10,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,23; 21,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 13,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 6,06</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>3,88%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,91</t>
+          <t>1,93; 7,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,44; 16,08</t>
+          <t>8,51; 17,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,52; 12,5</t>
+          <t>6,18; 13,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,72</t>
+          <t>1,47; 9,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,66</t>
+          <t>3,25; 10,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,7; 17,02</t>
+          <t>13,52; 23,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,5; 13,98</t>
+          <t>5,61; 12,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,45</t>
+          <t>0,86; 9,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,05</t>
+          <t>3,13; 7,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,48; 15,13</t>
+          <t>11,91; 18,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,97</t>
+          <t>6,49; 11,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,87</t>
+          <t>1,91; 7,13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,19%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,11</t>
+          <t>2,45; 7,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,02; 14,99</t>
+          <t>7,43; 15,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,55; 13,27</t>
+          <t>7,36; 15,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,01</t>
+          <t>0,0; 2,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,76</t>
+          <t>2,67; 8,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,01; 18,83</t>
+          <t>8,8; 17,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 12,01</t>
+          <t>6,16; 14,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 7,33</t>
+          <t>1,77; 8,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,57; 6,3</t>
+          <t>3,06; 6,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,31; 15,76</t>
+          <t>9,4; 14,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,83; 11,52</t>
+          <t>7,92; 13,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,32</t>
+          <t>1,02; 4,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,11%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11,69%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15,21%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,12%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,02%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,42%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9,59%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 6,31</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9,08; 14,74</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7,55; 12,95</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 4,0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,56; 8,08</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12,22; 19,03</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,68; 11,72</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 6,87</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 6,19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11,2; 15,67</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7,84; 11,64</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 4,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/KIDM_C_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_3_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,39</t>
+          <t>1,8; 7,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 17,87</t>
+          <t>8,51; 17,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 13,08</t>
+          <t>6,05; 13,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 9,14</t>
+          <t>1,06; 9,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 10,59</t>
+          <t>3,28; 10,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,52; 23,68</t>
+          <t>13,31; 23,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 12,53</t>
+          <t>5,36; 12,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,03</t>
+          <t>1,17; 10,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,43</t>
+          <t>3,08; 7,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,91; 18,85</t>
+          <t>12,03; 18,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 11,83</t>
+          <t>6,49; 11,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,13</t>
+          <t>1,74; 7,1</t>
         </is>
       </c>
     </row>
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 7,33</t>
+          <t>2,3; 7,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,43; 15,34</t>
+          <t>7,58; 15,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,36; 15,44</t>
+          <t>7,34; 15,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,42 +1164,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 8,19</t>
+          <t>2,86; 8,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,8; 17,11</t>
+          <t>8,6; 17,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,16; 14,48</t>
+          <t>6,27; 14,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 8,06</t>
+          <t>1,77; 8,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,5</t>
+          <t>3,11; 6,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,4; 14,98</t>
+          <t>9,15; 14,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,92; 13,78</t>
+          <t>7,88; 13,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,09</t>
+          <t>1,09; 4,14</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,31</t>
+          <t>2,68; 6,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,08; 14,74</t>
+          <t>9,09; 14,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,55; 12,95</t>
+          <t>7,56; 13,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,0</t>
+          <t>0,83; 3,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 8,08</t>
+          <t>3,54; 7,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,22; 19,03</t>
+          <t>12,39; 19,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,68; 11,72</t>
+          <t>6,74; 12,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,87</t>
+          <t>2,03; 6,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,19</t>
+          <t>3,61; 6,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,2; 15,67</t>
+          <t>11,27; 15,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,84; 11,64</t>
+          <t>7,7; 11,63</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,48</t>
+          <t>1,71; 4,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/KIDM_C_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,13%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17,9%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8,4%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4,08%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>4,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>12,44%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>9,08%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,85%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,13%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>17,9%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>8,4%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>4,04%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,55</t>
+          <t>3,23; 10,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 17,39</t>
+          <t>13,24; 24,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 13,36</t>
+          <t>5,23; 12,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,29</t>
+          <t>1,11; 9,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 10,37</t>
+          <t>1,94; 7,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,31; 23,5</t>
+          <t>8,52; 17,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 12,02</t>
+          <t>5,94; 13,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 10,22</t>
+          <t>1,56; 9,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,48</t>
+          <t>3,08; 7,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,03; 18,87</t>
+          <t>11,88; 18,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 11,3</t>
+          <t>6,41; 11,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 7,1</t>
+          <t>1,69; 7,17</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,88%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12,73%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>4,18%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>11,02%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>11,06%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,88%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>12,73%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>9,91%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,03%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 7,18</t>
+          <t>2,9; 8,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 15,55</t>
+          <t>8,73; 17,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,34; 15,89</t>
+          <t>6,21; 14,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>1,21; 6,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 8,09</t>
+          <t>2,3; 7,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,6; 17,64</t>
+          <t>7,69; 15,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,27; 14,74</t>
+          <t>7,45; 15,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 8,21</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,59</t>
+          <t>3,03; 6,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,15; 14,97</t>
+          <t>9,14; 14,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,88; 13,76</t>
+          <t>7,81; 13,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,14</t>
+          <t>0,9; 3,81</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15,21%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,12%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>4,11%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>11,69%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>10,05%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,88%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>15,21%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>9,12%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,73%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,47</t>
+          <t>3,58; 7,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,09; 14,79</t>
+          <t>12,01; 18,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,56; 13,1</t>
+          <t>6,9; 12,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,68</t>
+          <t>1,7; 6,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 7,7</t>
+          <t>2,46; 6,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,39; 19,27</t>
+          <t>9,02; 14,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,74; 12,25</t>
+          <t>7,55; 13,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,98</t>
+          <t>0,84; 4,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,3</t>
+          <t>3,57; 6,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,27; 15,82</t>
+          <t>11,31; 15,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,7; 11,63</t>
+          <t>7,83; 11,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,21</t>
+          <t>1,63; 4,17</t>
         </is>
       </c>
     </row>
